--- a/India.xlsx
+++ b/India.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Energy_Use</t>
+  </si>
+  <si>
+    <t>Forign_Direct_Investment%GDP</t>
   </si>
   <si>
     <t>1995</t>
@@ -470,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,10 +501,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>7.57449184032379</v>
@@ -521,10 +527,13 @@
       <c r="G2">
         <v>385.09185736623</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0.59498625843436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>7.5495222488198</v>
@@ -544,10 +553,13 @@
       <c r="G3">
         <v>389.426516032456</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0.617479055916172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>4.0498208490926</v>
@@ -567,10 +579,13 @@
       <c r="G4">
         <v>397.378185506455</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0.860208566090658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>6.18441582090618</v>
@@ -590,10 +605,13 @@
       <c r="G5">
         <v>399.498829204299</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0.625285966332408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>8.845755561055091</v>
@@ -613,10 +631,13 @@
       <c r="G6">
         <v>414.96249255415</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0.472644845877164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>3.84099115681285</v>
@@ -636,10 +657,13 @@
       <c r="G7">
         <v>417.287588979865</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0.765212648995792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>4.82396626390641</v>
@@ -659,10 +683,13 @@
       <c r="G8">
         <v>416.014440832226</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>1.05637830509657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>3.8039753213758</v>
@@ -682,10 +709,13 @@
       <c r="G9">
         <v>421.270490829666</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>1.01157180543964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>7.86038147553259</v>
@@ -705,10 +735,13 @@
       <c r="G10">
         <v>424.294344834093</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0.605889254716748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>7.92293661286503</v>
@@ -728,10 +761,13 @@
       <c r="G11">
         <v>439.703004540807</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0.7656014045735819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>7.92343062149763</v>
@@ -751,10 +787,13 @@
       <c r="G12">
         <v>449.76585702652</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0.886100720125194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>8.06073257303272</v>
@@ -774,10 +813,13 @@
       <c r="G13">
         <v>466.138261080584</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>2.13016842533494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>7.66081506504928</v>
@@ -797,10 +839,13 @@
       <c r="G14">
         <v>485.099628652313</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>2.07339574616693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>3.08669805953289</v>
@@ -820,10 +865,13 @@
       <c r="G15">
         <v>501.559636179128</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>3.62052189719656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>7.86188883303498</v>
@@ -843,10 +891,13 @@
       <c r="G16">
         <v>544.626597293667</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>2.65159312683012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>8.49758470158106</v>
@@ -866,10 +917,13 @@
       <c r="G17">
         <v>561.653405869891</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>1.63503427378005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>5.24131500140663</v>
@@ -889,10 +943,13 @@
       <c r="G18">
         <v>577.994426290311</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>2.00206555190048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>5.45638875297365</v>
@@ -912,10 +969,13 @@
       <c r="G19">
         <v>599.155619780044</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1.31293433730695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>6.38610640094825</v>
@@ -935,10 +995,13 @@
       <c r="G20">
         <v>605.794037758373</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>1.51627596536499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>7.41022760508854</v>
@@ -958,10 +1021,13 @@
       <c r="G21">
         <v>636.57183398644</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>1.69565878566846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>7.99625378571471</v>
@@ -981,10 +1047,13 @@
       <c r="G22">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>2.09211575768566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>8.256305501790861</v>
@@ -1004,10 +1073,13 @@
       <c r="G23">
         <v>700</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>1.93736319812939</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>6.79538341897911</v>
@@ -1027,10 +1099,13 @@
       <c r="G24">
         <v>700</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>1.50731658089818</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>6.53298901139763</v>
@@ -1050,10 +1125,13 @@
       <c r="G25">
         <v>700</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>1.55926352274079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>4.0415541865323</v>
@@ -1073,10 +1151,13 @@
       <c r="G26">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>1.76312750821227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>-7.25175478178826</v>
@@ -1095,6 +1176,9 @@
       </c>
       <c r="G27">
         <v>700</v>
+      </c>
+      <c r="H27">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
